--- a/biology/Botanique/Stellaire_des_sources/Stellaire_des_sources.xlsx
+++ b/biology/Botanique/Stellaire_des_sources/Stellaire_des_sources.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stellaria alsine
 La Stellaire des sources ou la Stellaire alsine (Stellaria alsine) est une plante herbacée vivace de la famille des Caryophyllacées.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alsine uliginosa (Murray) Britton
 Stellaria uliginosa Murray</t>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Caractéristiques
-Organes reproducteurs
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Période de floraison : mai-octobre
 Inflorescence : cyme bipare
@@ -583,7 +602,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitat type : sources laurasiennes acidophiles
 Aire de répartition : circumboréal
@@ -616,9 +637,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante [1] : elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans la région Poitou-Charentes.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante  : elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, dans la région Poitou-Charentes.
 </t>
         </is>
       </c>
